--- a/biology/Histoire de la zoologie et de la botanique/Paul_Géroudet/Paul_Géroudet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paul_Géroudet/Paul_Géroudet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul_G%C3%A9roudet</t>
+          <t>Paul_Géroudet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Géroudet (Genève, 13 décembre 1917 - ibidem, 23 novembre 2006) est un ornithologue suisse francophone. Par son action d'adaptateur-traducteur-rédacteur de livres d'ornithologie de base et d'observation, son engagement à défendre la cause des oiseaux menacés et sa persévérance à poursuivre des actions au niveau international, il figure parmi les plus éminents ornithologues européens du XXe siècle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul_G%C3%A9roudet</t>
+          <t>Paul_Géroudet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Passionné dès son plus jeune âge par la nature, notamment à la suite de la lecture de l'ouvrage Le merveilleux voyage de Nils Holgersson à travers la Suède de Selma Lagerlöf, il se met à l'ornithologie en autodidacte vers l'âge de quinze ans, s'abonne à la revue Nos Oiseaux de la Société Romande pour l'Étude et la Protection des Oiseaux dès 1932. Il y publie sa première note en 1935.
 Il s’inscrit aussi à la Ligue suisse pour la protection de la nature, à laquelle il restera fidèle tout au long de sa vie. Il fréquente assidûment la bibliothèque du Muséum d’histoire naturelle de Genève.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paul_G%C3%A9roudet</t>
+          <t>Paul_Géroudet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Ses contributions à l'ornithologie de terrain</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'auteur de nombreux ouvrages de référence parus aux éditions Delachaux et Niestlé, dont le premier, issu d'un projet de Paul-André Robert, parut en 1940, sous le titre Les Rapaces, les colombins et les gallinacés. L'ouvrage fit sensation dans les milieux francophones, car rien de pareil n'existait alors en matière d'étude de la vie et des mœurs des oiseaux.
 Bientôt suivirent, dans la série Les Beautés de la nature aux mêmes éditions, les ouvrages Les Échassiers (1942), Les Palmipèdes (1946), puis trois volumes Les Passereaux (1951, 1954 et 1957).
@@ -557,7 +573,7 @@
 En 1967 il envoie à plusieurs autorités et personnalités de Haute-Savoie un appel à la sauvegarde des îles du Delta de la Dranse, il renouvellera son appel en 1971 puis en 1972 en publiant un mémorandum "SOS pour les iles de la Dranse". Ces appels seront entendus tardivement avec la création en 1980 de la Réserve naturelle nationale du delta de la Dranse.  
 En collaboration avec Noël Simon, paraît en 1970 Survivants. SOS pour 48 animaux dont les illustrations sont de Paul Barruel pour les oiseaux et de Helmut Diller pour les mammifères. Ayant obtenu des subventions du Fonds national de la recherche scientifique, il peut se consacrer à la rédaction des deux tomes des Limicoles, gangas et pigeons d’Europe qui paraissent en 1982 et 1983 et dont l’illustration est due en partie à Paul Barruel, l’ami récemment décédé, à qui les ouvrages sont dédiés.
 Le livre Les oiseaux du lac Léman paru en 1987 aux éditions Delachaux &amp; Niestlé en collaboration avec Nos Oiseaux est un ouvrage fondamental pour l'étude des lacs en général. L'illustration due en partie à Robert Hainard lui apporte une dimension artistique.
-D'une manière générale, tant par ses écrits spécialisés, que par sa contribution au guide de Peterson, Paul Géroudet a grandement contribué à la vulgarisation de l'ornithologie et à la formation d'observateurs de langue française en Europe. Il est en première ligne un défenseur des espèces menacées, notamment les rapaces, massacrés abondamment dans les années cinquante. Il a été un ardent défenseur des aigles, des vautours, des faucons, des hiboux et chouettes, des gypaètes barbus[1], ainsi que des oiseaux migrateurs...
+D'une manière générale, tant par ses écrits spécialisés, que par sa contribution au guide de Peterson, Paul Géroudet a grandement contribué à la vulgarisation de l'ornithologie et à la formation d'observateurs de langue française en Europe. Il est en première ligne un défenseur des espèces menacées, notamment les rapaces, massacrés abondamment dans les années cinquante. Il a été un ardent défenseur des aigles, des vautours, des faucons, des hiboux et chouettes, des gypaètes barbus, ainsi que des oiseaux migrateurs...
 </t>
         </is>
       </c>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Paul_G%C3%A9roudet</t>
+          <t>Paul_Géroudet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Style</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sens de l'écriture et de la mise en situation, une parfaite maîtrise de la langue, donnent aux ouvrages de Paul Géroudet, en complément du fond scientifique indiscutable, un ton et une expression d'une grande qualité littéraire qui en font un auteur remarqué dans le monde ornithologique francophone.
 Voici un exemple extrait du tome 1 du guide Les Passereaux d'Europe :
